--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1B0D5-4329-446D-B495-DE0BE30CF656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4CF6E47-F2D9-4BDD-AAB4-F571AEBC94AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -26,17 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -523,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1033,6 +1022,9 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1913,6 +1905,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1922,15 +1923,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1948,6 +1940,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3073,21 +3068,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
@@ -3102,10 +3097,10 @@
       <c r="L2" s="105"/>
       <c r="M2" s="105"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +3143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3174,7 +3169,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -3182,7 +3177,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3222,7 +3217,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -3254,7 +3249,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -3277,7 +3272,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -3309,7 +3304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
@@ -3330,9 +3325,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -3351,7 +3346,7 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3366,23 +3361,23 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3395,8 +3390,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3409,7 +3404,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3424,7 +3419,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
         <v>137</v>
@@ -3455,7 +3450,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
@@ -3486,7 +3481,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
@@ -3509,7 +3504,7 @@
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="49" t="s">
         <v>15</v>
@@ -3532,7 +3527,7 @@
       <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="61" t="s">
         <v>15</v>
@@ -3557,7 +3552,7 @@
       </c>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -3570,66 +3565,66 @@
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="109" t="s">
+    <row r="14" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="111"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="108"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="111"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="107"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="110"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="111"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="107"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E20" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3654,26 +3649,26 @@
       <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3686,7 +3681,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
         <v>21</v>
@@ -3701,7 +3696,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
         <v>22</v>
@@ -3732,7 +3727,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
         <v>31</v>
@@ -3763,7 +3758,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
         <v>67</v>
@@ -3778,7 +3773,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
         <v>61</v>
@@ -3801,7 +3796,7 @@
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
       <c r="C10" s="49" t="s">
         <v>40</v>
@@ -3826,7 +3821,7 @@
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
       <c r="C11" s="45" t="s">
         <v>68</v>
@@ -3841,7 +3836,7 @@
       <c r="K11" s="46"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
       <c r="C12" s="47" t="s">
         <v>41</v>
@@ -3866,7 +3861,7 @@
       <c r="K12" s="48"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29"/>
       <c r="C13" s="51" t="s">
         <v>41</v>
@@ -3891,7 +3886,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -3904,14 +3899,14 @@
       <c r="K14" s="31"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="109" t="s">
+    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+    </row>
+    <row r="18" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="24" t="s">
         <v>169</v>
       </c>
@@ -3920,7 +3915,7 @@
       </c>
       <c r="E18" s="114"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="104" t="s">
         <v>150</v>
       </c>
@@ -3929,7 +3924,7 @@
       </c>
       <c r="E19" s="117"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="101" t="s">
         <v>156</v>
       </c>
@@ -3938,7 +3933,7 @@
       </c>
       <c r="E20" s="115"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="100" t="s">
         <v>154</v>
       </c>
@@ -3947,7 +3942,7 @@
       </c>
       <c r="E21" s="116"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="101" t="s">
         <v>153</v>
       </c>
@@ -3956,7 +3951,7 @@
       </c>
       <c r="E22" s="115"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="100" t="s">
         <v>152</v>
       </c>
@@ -3965,7 +3960,7 @@
       </c>
       <c r="E23" s="116"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="101" t="s">
         <v>159</v>
       </c>
@@ -3974,7 +3969,7 @@
       </c>
       <c r="E24" s="115"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="100" t="s">
         <v>155</v>
       </c>
@@ -3983,7 +3978,7 @@
       </c>
       <c r="E25" s="116"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="101" t="s">
         <v>151</v>
       </c>
@@ -3992,7 +3987,7 @@
       </c>
       <c r="E26" s="115"/>
     </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="102" t="s">
         <v>157</v>
       </c>
@@ -4028,27 +4023,27 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4057,7 +4052,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4068,7 +4063,7 @@
       <c r="G5" s="56"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4087,7 +4082,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4106,7 +4101,7 @@
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="70" t="s">
         <v>52</v>
@@ -4121,7 +4116,7 @@
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E9</f>
@@ -4141,7 +4136,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
         <f>FI_Process!E10</f>
@@ -4161,7 +4156,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -4185,26 +4180,26 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
@@ -4212,10 +4207,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
@@ -4229,7 +4224,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4245,7 +4240,7 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>24</v>
@@ -4282,7 +4277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>45</v>
@@ -4322,7 +4317,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="80" t="s">
         <v>52</v>
@@ -4356,7 +4351,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E12</f>
@@ -4402,7 +4397,7 @@
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
         <f>FI_Process!E13</f>
@@ -4448,7 +4443,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -4466,33 +4461,33 @@
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4502,39 +4497,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="77"/>
       <c r="D4" s="78"/>
       <c r="E4" s="79"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="90" t="s">
         <v>43</v>
@@ -4543,7 +4538,7 @@
       <c r="E5" s="91"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="88" t="s">
         <v>2</v>
@@ -4556,7 +4551,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="92" t="s">
         <v>121</v>
@@ -4568,8 +4563,11 @@
         <v>122</v>
       </c>
       <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="95" t="s">
         <v>52</v>
@@ -4580,7 +4578,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="82" t="str">
         <f>FI_Comm!E10</f>
@@ -4594,7 +4592,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -4607,6 +4605,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4801,15 +4808,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4822,6 +4820,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4840,14 +4846,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4CF6E47-F2D9-4BDD-AAB4-F571AEBC94AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49827CE-2398-49FB-B3E4-B9BB93F6803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="176">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1024,7 +1024,22 @@
     <t>Set</t>
   </si>
   <si>
-    <t>xx</t>
+    <t>BIOMASS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>IMP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Import of biomass</t>
+  </si>
+  <si>
+    <t>EX_PP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Power Plant - Biomass</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1348,21 +1363,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1448,36 +1448,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1709,6 +1679,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1716,7 +1821,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1764,184 +1869,188 @@
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2063,7 +2172,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2274,7 +2383,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3086,16 +3195,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3355,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,36 +3501,36 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="34"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="43" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -3445,14 +3554,14 @@
       <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -3476,14 +3585,14 @@
       <c r="J7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="20"/>
@@ -3501,12 +3610,12 @@
         <v>19</v>
       </c>
       <c r="J8" s="21"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="34"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="22"/>
@@ -3524,117 +3633,138 @@
         <v>19</v>
       </c>
       <c r="J9" s="23"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="61" t="s">
+      <c r="K9" s="39"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F11" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G11" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H11" s="49"/>
+      <c r="I11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
+      <c r="J11" s="49"/>
+      <c r="K11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="106" t="s">
+    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="103" t="s">
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D16" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="108"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="100" t="s">
+      <c r="E16" s="94"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D17" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="111"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="101" t="s">
+      <c r="E17" s="97"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D18" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="110"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="100" t="s">
+      <c r="E18" s="96"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D19" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="111"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="E19" s="97"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D20" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="102" t="s">
+      <c r="E20" s="96"/>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D21" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="109"/>
+      <c r="E21" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3643,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,346 +3799,394 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="38" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="C5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="41" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="43" t="s">
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="34"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="34"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="107"/>
+      <c r="E13" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
+      <c r="J13" s="107"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="D14" s="105"/>
+      <c r="E14" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F14" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G14" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H14" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I14" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="106" t="s">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="24" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+    </row>
+    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D20" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="114"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="104" t="s">
+      <c r="E20" s="100"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D21" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="117"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="101" t="s">
+      <c r="E21" s="103"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D22" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="100" t="s">
+      <c r="E22" s="101"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D23" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="116"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="101" t="s">
+      <c r="E23" s="102"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D24" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="115"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="100" t="s">
+      <c r="E24" s="101"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D25" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="116"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="101" t="s">
+      <c r="E25" s="102"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D26" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="115"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="100" t="s">
+      <c r="E26" s="101"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D27" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="116"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="101" t="s">
+      <c r="E27" s="102"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D28" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="115"/>
-    </row>
-    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="102" t="s">
+      <c r="E28" s="101"/>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D29" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E29" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4017,10 +4195,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,28 +4222,28 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="34"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4077,14 +4255,14 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4096,74 +4274,91 @@
       <c r="F7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="B9" s="27"/>
+      <c r="C9" s="58" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="107" t="str">
         <f>FI_Process!F9</f>
         <v>Import of Fuel Oil</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="107" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="73">
+      <c r="F9" s="107"/>
+      <c r="G9" s="59">
         <v>30</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="110" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="105" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="105" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
+      <c r="F10" s="105"/>
+      <c r="G10" s="111">
         <v>20</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="60" t="str">
+        <f>FI_Process!E11</f>
+        <v>IMP_BIOMASS</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61" t="str">
+        <f>FI_Comm!E10</f>
+        <v>BIOMASS</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62">
+        <v>20</v>
+      </c>
       <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4174,10 +4369,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +4380,7 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -4211,38 +4406,38 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="65" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="34"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4269,17 +4464,17 @@
       <c r="K6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="32"/>
       <c r="O6" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4306,10 +4501,10 @@
       <c r="K7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="32"/>
       <c r="O7" s="10" t="s">
         <v>131</v>
       </c>
@@ -4318,8 +4513,8 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="66" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="15"/>
@@ -4340,25 +4535,25 @@
       <c r="K8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
+      <c r="M8" s="32"/>
+      <c r="O8" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="P8" s="72" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+      <c r="B9" s="27"/>
+      <c r="C9" s="58" t="str">
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4366,7 +4561,7 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>FI_Comm!E10</f>
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
       <c r="G9" s="11">
@@ -4384,110 +4579,156 @@
       <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="59">
         <v>1</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="M9" s="32"/>
+      <c r="O9" s="71">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="71">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+      <c r="B10" s="27"/>
+      <c r="C10" s="60" t="str">
+        <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+      <c r="D10" s="61" t="str">
+        <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="61" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75" t="str">
-        <f>FI_Comm!E10</f>
+      <c r="F10" s="61" t="str">
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="61">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="61">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="61">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="61">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="61">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="62">
         <v>1</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="O10" s="98">
+      <c r="M10" s="32"/>
+      <c r="O10" s="84">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="84">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="61" t="str">
+        <f>FI_Process!E15</f>
+        <v>EX_PP_BIOMASS</v>
+      </c>
+      <c r="D11" s="61" t="str">
+        <f>FI_Process!F15</f>
+        <v>Power Plant - Biomass</v>
+      </c>
+      <c r="E11" s="61" t="str">
+        <f>FI_Comm!E10</f>
+        <v>BIOMASS</v>
+      </c>
+      <c r="F11" s="61" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G11" s="61">
+        <v>5</v>
+      </c>
+      <c r="H11" s="61">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="61">
+        <v>1</v>
+      </c>
+      <c r="L11" s="61">
+        <v>1</v>
+      </c>
       <c r="M11" s="32"/>
-      <c r="O11" s="99">
-        <f>SUM(O9:O10)</f>
-        <v>132.45120000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="O11" s="84">
+        <f>G11*H11*J11</f>
+        <v>110.376</v>
+      </c>
+      <c r="P11" s="84">
+        <f>O11/I11</f>
+        <v>220.75200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="O12" s="85">
+        <f>SUM(O9:O11)</f>
+        <v>242.82720000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-    </row>
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4499,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,81 +4764,79 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="73">
         <v>2025</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="H7" s="118" t="s">
-        <v>170</v>
-      </c>
+      <c r="F7" s="32"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
-        <f>FI_Comm!E10</f>
+      <c r="B9" s="27"/>
+      <c r="C9" s="68" t="str">
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="69">
         <v>100</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49827CE-2398-49FB-B3E4-B9BB93F6803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E271991-BADE-4B37-9FC7-5928D3CE1D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1040,6 +1040,27 @@
   </si>
   <si>
     <t>Power Plant - Biomass</t>
+  </si>
+  <si>
+    <t>\I: Grid</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>Electricity grid</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>Low Voltage Electricity</t>
+  </si>
+  <si>
+    <t>ELC_HV produstion - 100PJ</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1842,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2053,6 +2074,7 @@
     <xf numFmtId="164" fontId="18" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
@@ -2172,7 +2194,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2383,7 +2405,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3464,10 +3486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,89 +3704,112 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="92" t="s">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+      <c r="C12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="89" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D17" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="94"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="86" t="s">
+      <c r="E17" s="94"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D18" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="97"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="87" t="s">
+      <c r="E18" s="97"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D19" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="96"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="86" t="s">
+      <c r="E19" s="96"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D20" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="97"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="87" t="s">
+      <c r="E20" s="97"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D21" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="96"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="88" t="s">
+      <c r="E21" s="96"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D22" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="95"/>
+      <c r="E22" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3773,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,129 +4109,169 @@
       <c r="K15" s="62"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="92" t="s">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="21" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-    </row>
-    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D22" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="100"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="90" t="s">
+      <c r="E22" s="100"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D23" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="103"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="87" t="s">
+      <c r="E23" s="103"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D24" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="101"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="86" t="s">
+      <c r="E24" s="101"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D25" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="102"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="87" t="s">
+      <c r="E25" s="102"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D26" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="101"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="86" t="s">
+      <c r="E26" s="101"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D27" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="102"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="87" t="s">
+      <c r="E27" s="102"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D28" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="101"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="86" t="s">
+      <c r="E28" s="101"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D29" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="102"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="87" t="s">
+      <c r="E29" s="102"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D30" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="101"/>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="88" t="s">
+      <c r="E30" s="101"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D31" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="98"/>
+      <c r="E31" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4198,7 +4283,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4684,51 +4769,80 @@
         <v>220.75200000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="O12" s="85">
+    <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+      <c r="C12" s="61" t="str">
+        <f>FI_Process!E17</f>
+        <v>GRID</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="F12" s="61" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61">
+        <v>1</v>
+      </c>
+      <c r="I12" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="O13" s="85">
         <f>SUM(O9:O11)</f>
         <v>242.82720000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-    </row>
+    <row r="20" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4740,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,16 +4934,20 @@
     <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="68" t="str">
-        <f>FI_Comm!E11</f>
-        <v>ELC_HV</v>
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="69">
-        <v>100</v>
+        <f>H10*'Power Plants'!I12</f>
+        <v>90</v>
       </c>
       <c r="F9" s="32"/>
+      <c r="H9" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
@@ -4837,6 +4955,9 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="30"/>
+      <c r="H10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E271991-BADE-4B37-9FC7-5928D3CE1D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68786D10-0D8E-4297-9CFB-F87FC250B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -20,12 +20,24 @@
     <sheet name="FI_Process" sheetId="2" r:id="rId5"/>
     <sheet name="Supply" sheetId="3" r:id="rId6"/>
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
-    <sheet name="Demand" sheetId="9" r:id="rId8"/>
+    <sheet name="GRID" sheetId="13" r:id="rId8"/>
+    <sheet name="Demand" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -511,8 +523,96 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9E78AFC4-2BAE-403F-95E2-523753FAAFF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -571,12 +671,6 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -1024,43 +1118,58 @@
     <t>Set</t>
   </si>
   <si>
-    <t>BIOMASS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>IMP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Import of biomass</t>
-  </si>
-  <si>
-    <t>EX_PP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Power Plant - Biomass</t>
-  </si>
-  <si>
-    <t>\I: Grid</t>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
+  </si>
+  <si>
+    <t>Low Voltage</t>
+  </si>
+  <si>
+    <t>Final demand</t>
+  </si>
+  <si>
+    <t>EX_PP_WIND</t>
+  </si>
+  <si>
+    <t>Power Plant - Wind Tuebine</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>Supply Wind Onshore</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>Demand process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>DMD_FIN_ELC</t>
+  </si>
+  <si>
+    <t>Final electricity demand</t>
   </si>
   <si>
     <t>PRE</t>
   </si>
   <si>
-    <t>GRID</t>
-  </si>
-  <si>
-    <t>Electricity grid</t>
-  </si>
-  <si>
-    <t>ELC_LV</t>
-  </si>
-  <si>
-    <t>Low Voltage Electricity</t>
-  </si>
-  <si>
-    <t>ELC_HV produstion - 100PJ</t>
+    <t>EX_ELC_GRID</t>
+  </si>
+  <si>
+    <t>Existing Grid</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1324,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,8 +1373,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1381,6 +1496,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1478,6 +1608,36 @@
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1701,134 +1861,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1842,7 +1878,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1890,133 +1926,155 @@
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2025,10 +2083,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,47 +2098,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
     <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2194,7 +2228,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2405,7 +2439,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3215,63 +3249,63 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+        <v>92</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -3279,165 +3313,165 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="8">
         <v>1000</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" s="8">
         <v>1000000</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="8">
         <v>1000</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12" s="8">
         <v>1000000</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3460,7 +3494,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3486,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,40 +3557,40 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="31"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="32"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="43" t="s">
-        <v>137</v>
+      <c r="B6" s="29"/>
+      <c r="C6" s="57" t="s">
+        <v>135</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>2</v>
@@ -3576,18 +3610,18 @@
       <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>10</v>
@@ -3607,37 +3641,35 @@
       <c r="J7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="32"/>
+      <c r="K7" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="47" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="I8" s="21"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="32"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="22"/>
@@ -3645,171 +3677,186 @@
         <v>16</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="32"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50" t="s">
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="13" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="89" t="s">
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="109"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="E20" s="108"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="94"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="97"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="96" t="s">
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="96"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="97" t="s">
+      <c r="D22" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="108"/>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="97"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="96"/>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="88" t="s">
+      <c r="D23" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="95"/>
+      <c r="E23" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3818,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,441 +3884,471 @@
   <sheetData>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="113" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="116" t="s">
+      <c r="E6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="F6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="G6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="H6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="I6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="J6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="K6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="117" t="s">
+      <c r="D7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="118" t="s">
+      <c r="E7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="F7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="G7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="H7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="I7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="K7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="120" t="s">
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="108" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107" t="s">
+      <c r="G13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="21" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-    </row>
-    <row r="22" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="100"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="90" t="s">
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="112"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="115"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="113"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="114"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="113"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="103"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="87" t="s">
+      <c r="D29" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="114"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="113"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="114"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="101"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="102"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="101"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="102"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="101"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="86" t="s">
+      <c r="E32" s="113"/>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D33" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="102"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="101"/>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="98"/>
+      <c r="E33" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4283,7 +4360,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4300,150 +4377,153 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="51" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G7" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="32"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="58" t="str">
+      <c r="B9" s="29"/>
+      <c r="C9" s="72" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
-      <c r="D9" s="107" t="str">
+      <c r="D9" s="11" t="str">
         <f>FI_Process!F9</f>
         <v>Import of Fuel Oil</v>
       </c>
-      <c r="E9" s="107" t="str">
+      <c r="E9" s="11" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="59">
+      <c r="F9" s="11"/>
+      <c r="G9" s="73">
         <v>30</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="110" t="str">
+      <c r="B10" s="29"/>
+      <c r="C10" s="116" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="105" t="str">
+      <c r="D10" s="117" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="105" t="str">
+      <c r="E10" s="117" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="111">
+      <c r="F10" s="117"/>
+      <c r="G10" s="118">
         <v>20</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="60" t="str">
+      <c r="B11" s="29"/>
+      <c r="C11" s="119" t="str">
         <f>FI_Process!E11</f>
-        <v>IMP_BIOMASS</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61" t="str">
+        <v>MIN_WIND_ON</v>
+      </c>
+      <c r="D11" s="120" t="str">
+        <f>FI_Process!F11</f>
+        <v>Supply Wind Onshore</v>
+      </c>
+      <c r="E11" s="120" t="str">
         <f>FI_Comm!E10</f>
-        <v>BIOMASS</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62">
-        <v>20</v>
-      </c>
-      <c r="H11" s="32"/>
+        <v>WIND_ON</v>
+      </c>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121">
+        <v>1E-3</v>
+      </c>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4454,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P24"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C5" sqref="C5:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,7 +4545,7 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -4481,7 +4561,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -4491,149 +4571,149 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="31"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="51" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="O6" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="H7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="O6" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="L7" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="32"/>
+      <c r="M7" s="34"/>
       <c r="O7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="66" t="s">
-        <v>52</v>
+      <c r="B8" s="29"/>
+      <c r="C8" s="78" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="O8" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="P8" s="72" t="s">
-        <v>132</v>
+        <v>76</v>
+      </c>
+      <c r="L8" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="O8" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="84" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="58" t="str">
+      <c r="B9" s="29"/>
+      <c r="C9" s="72" t="str">
         <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
@@ -4664,185 +4744,148 @@
       <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="73">
         <v>1</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="O9" s="71">
+      <c r="M9" s="34"/>
+      <c r="O9" s="83">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="71">
+      <c r="P9" s="83">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="60" t="str">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="116" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="61" t="str">
+      <c r="D10" s="117" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="61" t="str">
+      <c r="E10" s="117" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="61" t="str">
+      <c r="F10" s="117" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="117">
         <v>2</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="117">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="117">
         <v>0.6</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="117">
         <v>0.5</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="117">
         <v>1</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="118">
         <v>1</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="O10" s="84">
+      <c r="M10" s="34"/>
+      <c r="O10" s="96">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="84">
+      <c r="P10" s="96">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="61" t="str">
+      <c r="B11" s="29"/>
+      <c r="C11" s="119" t="str">
         <f>FI_Process!E15</f>
-        <v>EX_PP_BIOMASS</v>
-      </c>
-      <c r="D11" s="61" t="str">
+        <v>EX_PP_WIND</v>
+      </c>
+      <c r="D11" s="120" t="str">
         <f>FI_Process!F15</f>
-        <v>Power Plant - Biomass</v>
-      </c>
-      <c r="E11" s="61" t="str">
+        <v>Power Plant - Wind Tuebine</v>
+      </c>
+      <c r="E11" s="120" t="str">
         <f>FI_Comm!E10</f>
-        <v>BIOMASS</v>
-      </c>
-      <c r="F11" s="61" t="str">
+        <v>WIND_ON</v>
+      </c>
+      <c r="F11" s="120" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="61">
-        <v>5</v>
-      </c>
-      <c r="H11" s="61">
+      <c r="G11" s="120">
+        <v>1</v>
+      </c>
+      <c r="H11" s="120">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="61">
+      <c r="I11" s="120">
         <v>1</v>
       </c>
-      <c r="L11" s="61">
+      <c r="J11" s="120">
+        <v>0.33</v>
+      </c>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121">
         <v>1</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="O11" s="84">
-        <f>G11*H11*J11</f>
-        <v>110.376</v>
-      </c>
-      <c r="P11" s="84">
-        <f>O11/I11</f>
-        <v>220.75200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="61" t="str">
-        <f>FI_Process!E17</f>
-        <v>GRID</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61" t="str">
-        <f>FI_Comm!E11</f>
-        <v>ELC_HV</v>
-      </c>
-      <c r="F12" s="61" t="str">
-        <f>FI_Comm!E12</f>
-        <v>ELC_LV</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61">
-        <v>1</v>
-      </c>
-      <c r="I12" s="61">
-        <v>0.9</v>
-      </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="32"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-    </row>
-    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="O13" s="85">
-        <f>SUM(O9:O11)</f>
-        <v>242.82720000000003</v>
+      <c r="O12" s="97">
+        <f>SUM(O9:O10)</f>
+        <v>132.45120000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4851,11 +4894,162 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
-  <dimension ref="B1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF049C56-8571-476E-80B4-2A2AA175E0B0}">
+  <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>FI_Process!E17</f>
+        <v>EX_ELC_GRID</v>
+      </c>
+      <c r="C6" t="str">
+        <f>FI_Process!F17</f>
+        <v>Existing Grid</v>
+      </c>
+      <c r="D6" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="E6" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
+  <dimension ref="B1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,108 +5057,252 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="76" t="s">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="85">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="80" t="str">
+        <f>FI_Comm!E13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="81">
+        <f>100/GRID!H6</f>
+        <v>113.63636363636364</v>
+      </c>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="73">
-        <v>2025</v>
-      </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="80" t="s">
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="H7" s="104"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="68" t="str">
+      <c r="J16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="123" t="str">
+        <f>FI_Process!E19</f>
+        <v>DMD_FIN_ELC</v>
+      </c>
+      <c r="D17" s="123" t="str">
+        <f>FI_Process!F19</f>
+        <v>Final electricity demand</v>
+      </c>
+      <c r="E17" s="123" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="69">
-        <f>H10*'Power Plants'!I12</f>
-        <v>90</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="H9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="H10">
-        <v>100</v>
-      </c>
+      <c r="F17" s="123" t="str">
+        <f>FI_Comm!E13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123">
+        <v>1</v>
+      </c>
+      <c r="I17" s="123">
+        <v>1</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4973,7 +5311,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5168,18 +5506,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5187,7 +5525,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5204,15 +5542,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68786D10-0D8E-4297-9CFB-F87FC250B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EF2C28-D5ED-4ECD-8D97-DED3A2FEAD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -27,17 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -612,7 +601,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="188">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1170,6 +1159,12 @@
   </si>
   <si>
     <t>Existing Grid</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1873,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2062,6 +2057,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,20 +2103,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
     <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3251,16 +3245,16 @@
       <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3523,7 +3517,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,7 +3655,9 @@
       <c r="G8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="48"/>
@@ -3682,7 +3678,9 @@
       <c r="G9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="50"/>
@@ -3703,7 +3701,9 @@
       <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
@@ -3724,7 +3724,9 @@
       <c r="G11" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="63" t="s">
+        <v>187</v>
+      </c>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
       <c r="K11" s="64" t="s">
@@ -3747,7 +3749,9 @@
       <c r="G12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="63" t="s">
+        <v>187</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -3768,7 +3772,9 @@
       <c r="G13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="63" t="s">
+        <v>187</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3788,65 +3794,65 @@
       <c r="L14" s="32"/>
     </row>
     <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="106"/>
+      <c r="E18" s="113"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="115"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="109"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="108"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3867,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,7 +4019,9 @@
       <c r="H9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
@@ -4036,7 +4044,9 @@
       <c r="H10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
@@ -4059,7 +4069,9 @@
       <c r="H11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="J11" s="23"/>
       <c r="K11" s="50"/>
       <c r="L11" s="34"/>
@@ -4097,7 +4109,9 @@
       <c r="H13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="48"/>
       <c r="L13" s="34"/>
@@ -4120,7 +4134,9 @@
       <c r="H14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
       <c r="L14" s="34"/>
@@ -4143,7 +4159,9 @@
       <c r="H15" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
       <c r="L15" s="34"/>
@@ -4158,7 +4176,7 @@
       <c r="F16" s="74"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
       <c r="L16" s="34"/>
@@ -4181,7 +4199,9 @@
       <c r="H17" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="34"/>
@@ -4198,7 +4218,7 @@
       <c r="F18" s="74"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
       <c r="L18" s="34"/>
@@ -4221,7 +4241,9 @@
       <c r="H19" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="34"/>
@@ -4240,101 +4262,101 @@
       <c r="L20" s="32"/>
     </row>
     <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
     </row>
     <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="112"/>
+      <c r="E24" s="119"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C25" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C26" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="113"/>
+      <c r="E26" s="120"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C27" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="114"/>
+      <c r="E27" s="121"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C28" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="113"/>
+      <c r="E28" s="120"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="114"/>
+      <c r="E29" s="121"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="113"/>
+      <c r="E30" s="120"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="114"/>
+      <c r="E31" s="121"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="113"/>
+      <c r="E32" s="120"/>
     </row>
     <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="110"/>
+      <c r="E33" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4478,40 +4500,40 @@
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="116" t="str">
+      <c r="C10" s="103" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="117" t="str">
+      <c r="D10" s="104" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="104" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118">
+      <c r="F10" s="104"/>
+      <c r="G10" s="105">
         <v>20</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="119" t="str">
+      <c r="C11" s="106" t="str">
         <f>FI_Process!E11</f>
         <v>MIN_WIND_ON</v>
       </c>
-      <c r="D11" s="120" t="str">
+      <c r="D11" s="107" t="str">
         <f>FI_Process!F11</f>
         <v>Supply Wind Onshore</v>
       </c>
-      <c r="E11" s="120" t="str">
+      <c r="E11" s="107" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="121">
+      <c r="F11" s="107"/>
+      <c r="G11" s="108">
         <v>1E-3</v>
       </c>
       <c r="H11" s="34"/>
@@ -4537,7 +4559,7 @@
   <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:L8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4759,38 +4781,38 @@
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="116" t="str">
+      <c r="C10" s="103" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="117" t="str">
+      <c r="D10" s="104" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="104" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="117" t="str">
+      <c r="F10" s="104" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="104">
         <v>2</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="104">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="104">
         <v>0.6</v>
       </c>
-      <c r="J10" s="117">
+      <c r="J10" s="104">
         <v>0.5</v>
       </c>
-      <c r="K10" s="117">
+      <c r="K10" s="104">
         <v>1</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="105">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
@@ -4805,41 +4827,41 @@
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="119" t="str">
+      <c r="C11" s="106" t="str">
         <f>FI_Process!E15</f>
         <v>EX_PP_WIND</v>
       </c>
-      <c r="D11" s="120" t="str">
+      <c r="D11" s="107" t="str">
         <f>FI_Process!F15</f>
         <v>Power Plant - Wind Tuebine</v>
       </c>
-      <c r="E11" s="120" t="str">
+      <c r="E11" s="107" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="120" t="str">
+      <c r="F11" s="107" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="107">
         <v>1</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="107">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="120">
+      <c r="I11" s="107">
         <v>1</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="107">
         <v>0.33</v>
       </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121">
+      <c r="K11" s="107"/>
+      <c r="L11" s="108">
         <v>1</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
@@ -4924,7 +4946,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
         <v>22</v>
       </c>
@@ -4956,7 +4978,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
         <v>43</v>
       </c>
@@ -5048,7 +5070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5167,7 +5189,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="66" t="s">
         <v>22</v>
       </c>
@@ -5199,7 +5221,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="C15" s="68" t="s">
         <v>43</v>
       </c>
@@ -5258,32 +5280,32 @@
       </c>
     </row>
     <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="123" t="str">
+      <c r="C17" s="109" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
       </c>
-      <c r="D17" s="123" t="str">
+      <c r="D17" s="109" t="str">
         <f>FI_Process!F19</f>
         <v>Final electricity demand</v>
       </c>
-      <c r="E17" s="123" t="str">
+      <c r="E17" s="109" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="F17" s="123" t="str">
+      <c r="F17" s="109" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123">
+      <c r="G17" s="109"/>
+      <c r="H17" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="109">
         <v>1</v>
       </c>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5292,26 +5314,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5506,26 +5508,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5542,4 +5545,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EF2C28-D5ED-4ECD-8D97-DED3A2FEAD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C44489-B98C-4274-9F80-2EA4576AA70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C44489-B98C-4274-9F80-2EA4576AA70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BCE5FB-B974-4761-B82A-1E08A409C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
       <text>
         <r>
           <rPr>
@@ -601,7 +601,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="198">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1165,6 +1165,36 @@
   </si>
   <si>
     <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>S1W1D1</t>
+  </si>
+  <si>
+    <t>S1W1D2</t>
+  </si>
+  <si>
+    <t>S1W2D1</t>
+  </si>
+  <si>
+    <t>S1W2D2</t>
+  </si>
+  <si>
+    <t>S2W1D1</t>
+  </si>
+  <si>
+    <t>S2W1D2</t>
+  </si>
+  <si>
+    <t>S2W2D1</t>
+  </si>
+  <si>
+    <t>S2W2D2</t>
+  </si>
+  <si>
+    <t>Timeslice</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,8 +1348,15 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1371,6 +1408,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,7 +1928,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2103,6 +2158,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
@@ -3873,7 +3934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -5068,10 +5129,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5090,23 +5151,23 @@
     <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
       <c r="E4" s="77"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="88" t="s">
         <v>41</v>
@@ -5115,7 +5176,7 @@
       <c r="E5" s="89"/>
       <c r="F5" s="82"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="86" t="s">
         <v>2</v>
@@ -5123,12 +5184,14 @@
       <c r="D6" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="85">
         <v>2025</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="90" t="s">
         <v>119</v>
@@ -5136,23 +5199,23 @@
       <c r="D7" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="93" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="128"/>
+      <c r="F8" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="80" t="str">
         <f>FI_Comm!E13</f>
@@ -5161,151 +5224,274 @@
       <c r="D9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="81">
+      <c r="F9" s="81">
         <f>100/GRID!H6</f>
         <v>113.63636363636364</v>
       </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="65" t="s">
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="123">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="123">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="123">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="123">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="123">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="123">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="124"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="123">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="124"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="66" t="s">
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L22" s="67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
+    <row r="23" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I23" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L23" s="69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="78" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L24" s="79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="109" t="str">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="109" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
       </c>
-      <c r="D17" s="109" t="str">
+      <c r="D25" s="109" t="str">
         <f>FI_Process!F19</f>
         <v>Final electricity demand</v>
       </c>
-      <c r="E17" s="109" t="str">
+      <c r="E25" s="109" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="F17" s="109" t="str">
+      <c r="F25" s="109" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109">
+      <c r="G25" s="109"/>
+      <c r="H25" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I25" s="109">
         <v>1</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5314,6 +5500,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5508,15 +5703,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5529,6 +5715,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5547,14 +5741,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
